--- a/Registro_Prep_para_ICPC.xlsx
+++ b/Registro_Prep_para_ICPC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgmor\Documents\Universidad\Retos\Codeforces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgmor\Documents\Universidad\Personal\Retos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB092CF5-9208-420D-890D-B62295F1AF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8A8C34-0F23-4884-ADE9-A2A7FA8A6F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="2460" windowWidth="16875" windowHeight="10433" xr2:uid="{A74C1AC9-7C78-41C4-8EE3-5E986077CAE0}"/>
+    <workbookView xWindow="9480" yWindow="1995" windowWidth="13005" windowHeight="10432" xr2:uid="{A74C1AC9-7C78-41C4-8EE3-5E986077CAE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -276,6 +276,150 @@
   </si>
   <si>
     <t>Este se veia mas complicado de lo q era, pero si lo entendi bien.</t>
+  </si>
+  <si>
+    <t>Petya Loves Strings</t>
+  </si>
+  <si>
+    <t>112A</t>
+  </si>
+  <si>
+    <t>La verdad no entendi que era Lexicograpy, ahora se q es literal un peso de un string y viene por default.</t>
+  </si>
+  <si>
+    <t>Beautiful Year</t>
+  </si>
+  <si>
+    <t>Me complique por quere hacer dos ciclos sin sentido.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Insomnia Cure</t>
+  </si>
+  <si>
+    <t>math,constructive algorithms</t>
+  </si>
+  <si>
+    <t>Queria hacer un ciclo por cada condicion cuando no se porque pense eso jaja.</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>Even Odds</t>
+  </si>
+  <si>
+    <t>La vdd tuve muchos problemas por la memoria, pues queria usar for y append pero eso en python es lentisimo, al final investigue las formulas para even y odds, pero la vdd si necesito practicar mas el ahorro de memoria y a empezar a usar c++</t>
+  </si>
+  <si>
+    <t>Squares</t>
+  </si>
+  <si>
+    <t>⭐⭐⭐</t>
+  </si>
+  <si>
+    <t>La verdad es que no comprendi ni de broma el como hacerlo, necesito practicar mas ejercicio de aritmetica y planos. Termine pidiendoselo a chat para la racha.</t>
+  </si>
+  <si>
+    <t>263B</t>
+  </si>
+  <si>
+    <t>Buy a Shovel</t>
+  </si>
+  <si>
+    <t>732A</t>
+  </si>
+  <si>
+    <t>brute force,math,constructive algorithms, implementation</t>
+  </si>
+  <si>
+    <t>La verdad si tarde un rato en entender lo que me pedian y el problema, pero una vez q lo hice, a la primera salio. Siento q saber implementar formulas es muy importante en vez de ciclos y cosas q utilizan mucha memoria.</t>
+  </si>
+  <si>
+    <t>Este si estuvo muy sencillo, contar apariciones.</t>
+  </si>
+  <si>
+    <t>734A</t>
+  </si>
+  <si>
+    <t>Anton and Danik</t>
+  </si>
+  <si>
+    <t>implementation,strings</t>
+  </si>
+  <si>
+    <t>13/1/2026</t>
+  </si>
+  <si>
+    <t>Nearly Luck Number</t>
+  </si>
+  <si>
+    <t>Crei entenderle desde un incio pero la vdd los ejemplos estaban confunsos pues no especificaban ciertas rubricas que tambien se tenian que cumplir</t>
+  </si>
+  <si>
+    <t>617A</t>
+  </si>
+  <si>
+    <t>Elephant</t>
+  </si>
+  <si>
+    <t>math,*800</t>
+  </si>
+  <si>
+    <t>Recordar el uso de operadores relacionales en el while.</t>
+  </si>
+  <si>
+    <t>268A</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>brute force, *800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⭐⭐ / </t>
+  </si>
+  <si>
+    <t>Practicar mas como funcionan las matrices es muy bueno porque te ahorra muchisimo trabajo manual.</t>
+  </si>
+  <si>
+    <t>486A</t>
+  </si>
+  <si>
+    <t>Calculating Function</t>
+  </si>
+  <si>
+    <t>math, implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⭐⭐ ⭐ </t>
+  </si>
+  <si>
+    <t>Es un problema donde el principal enfoque es como ahorras memoria, porque el usar ciclos haria q tarde siglos, pensar en formulas para resolver el problema, no literal.</t>
+  </si>
+  <si>
+    <t>758A</t>
+  </si>
+  <si>
+    <t>Holiday Of Equality</t>
+  </si>
+  <si>
+    <t>22/010/2026</t>
+  </si>
+  <si>
+    <t>Pensar siempre antes de programar.</t>
+  </si>
+  <si>
+    <t>Hulk</t>
+  </si>
+  <si>
+    <t>implemention, *800</t>
+  </si>
+  <si>
+    <t>Fue un ejercicio de concadenacion.</t>
   </si>
 </sst>
 </file>
@@ -684,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D18AAC2-8776-4A7A-B47F-A350A4C9B35A}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1229,6 +1373,377 @@
         <v>78</v>
       </c>
     </row>
+    <row r="18" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="5">
+        <v>46017</v>
+      </c>
+      <c r="F18" s="2">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="5">
+        <v>46023</v>
+      </c>
+      <c r="F19" s="2">
+        <v>25</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="5">
+        <v>46113</v>
+      </c>
+      <c r="F20" s="2">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="171" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="5">
+        <v>46143</v>
+      </c>
+      <c r="F21" s="7">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="5">
+        <v>46235</v>
+      </c>
+      <c r="F22" s="2">
+        <v>25</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="5">
+        <v>46357</v>
+      </c>
+      <c r="F23" s="2">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="5">
+        <v>46357</v>
+      </c>
+      <c r="F24" s="2">
+        <v>8</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="2">
+        <v>40</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2">
+        <v>6</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="5">
+        <v>46042</v>
+      </c>
+      <c r="F26" s="2">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="5">
+        <v>46042</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="114" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="5">
+        <v>46043</v>
+      </c>
+      <c r="F28" s="2">
+        <v>60</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="2">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="5">
+        <v>46047</v>
+      </c>
+      <c r="F30" s="2">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
